--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97819.17151641303</v>
+        <v>97819.17151641301</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>40835.24109532517</v>
+      </c>
+      <c r="C2" t="n">
         <v>40835.24109532516</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>40835.24109532517</v>
       </c>
-      <c r="D2" t="n">
-        <v>40835.24109532516</v>
-      </c>
       <c r="E2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="F2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="G2" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="H2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="I2" t="n">
         <v>40835.24109532517</v>
@@ -26344,16 +26346,16 @@
         <v>40835.24109532517</v>
       </c>
       <c r="M2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="N2" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="O2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="P2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
     </row>
     <row r="3">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-10941.35494704157</v>
+      </c>
+      <c r="C6" t="n">
         <v>-10941.35494704158</v>
       </c>
-      <c r="C6" t="n">
-        <v>-10941.35494704156</v>
-      </c>
       <c r="D6" t="n">
-        <v>-10941.35494704158</v>
+        <v>-10941.35494704157</v>
       </c>
       <c r="E6" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="F6" t="n">
+        <v>22686.24505295843</v>
+      </c>
+      <c r="G6" t="n">
         <v>22686.24505295842</v>
       </c>
-      <c r="G6" t="n">
-        <v>22686.24505295843</v>
-      </c>
       <c r="H6" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="I6" t="n">
         <v>22686.24505295843</v>
@@ -26546,19 +26548,19 @@
         <v>22686.24505295842</v>
       </c>
       <c r="K6" t="n">
+        <v>22686.24505295842</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22686.24505295842</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22686.24505295842</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22686.24505295842</v>
+      </c>
+      <c r="O6" t="n">
         <v>22686.24505295843</v>
-      </c>
-      <c r="L6" t="n">
-        <v>22686.24505295843</v>
-      </c>
-      <c r="M6" t="n">
-        <v>22686.24505295843</v>
-      </c>
-      <c r="N6" t="n">
-        <v>22686.24505295843</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22686.24505295842</v>
       </c>
       <c r="P6" t="n">
         <v>22686.24505295842</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97819.17151641301</v>
+        <v>-24780.8490621949</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="C2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="D2" t="n">
         <v>40835.24109532517</v>
@@ -26328,13 +26328,13 @@
         <v>40835.24109532517</v>
       </c>
       <c r="G2" t="n">
+        <v>40835.24109532516</v>
+      </c>
+      <c r="H2" t="n">
         <v>40835.24109532517</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>40835.24109532516</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40835.24109532517</v>
       </c>
       <c r="J2" t="n">
         <v>40835.24109532517</v>
@@ -26349,7 +26349,7 @@
         <v>40835.24109532516</v>
       </c>
       <c r="N2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="O2" t="n">
         <v>40835.24109532517</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10941.35494704157</v>
+        <v>-25594.70744880443</v>
       </c>
       <c r="C6" t="n">
-        <v>-10941.35494704158</v>
+        <v>-25594.70744880443</v>
       </c>
       <c r="D6" t="n">
-        <v>-10941.35494704157</v>
+        <v>-25594.70744880443</v>
       </c>
       <c r="E6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195568</v>
       </c>
       <c r="F6" t="n">
-        <v>22686.24505295843</v>
+        <v>8032.892551195568</v>
       </c>
       <c r="G6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195557</v>
       </c>
       <c r="H6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195568</v>
       </c>
       <c r="I6" t="n">
-        <v>22686.24505295843</v>
+        <v>8032.892551195557</v>
       </c>
       <c r="J6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195568</v>
       </c>
       <c r="K6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195564</v>
       </c>
       <c r="L6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195568</v>
       </c>
       <c r="M6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195557</v>
       </c>
       <c r="N6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.89255119556</v>
       </c>
       <c r="O6" t="n">
-        <v>22686.24505295843</v>
+        <v>8032.892551195571</v>
       </c>
       <c r="P6" t="n">
-        <v>22686.24505295842</v>
+        <v>8032.892551195575</v>
       </c>
     </row>
   </sheetData>
